--- a/Dokumentacja/MQTT_kanaly.xlsx
+++ b/Dokumentacja/MQTT_kanaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel.garczyk\Desktop\Dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009AF469-9534-48EE-87A9-CD6A1F85EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD6E83-F22C-4F9A-826F-36836B2517CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2E73A3A-567B-4341-AD8F-FC5CB34B2697}"/>
+    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{D2E73A3A-567B-4341-AD8F-FC5CB34B2697}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Subskrybuje</t>
   </si>
   <si>
-    <t>mqtt/distance</t>
-  </si>
-  <si>
     <t>us100.py</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Kanał do resetowania enkoderów. Reset wykonywanany wartością "1"  - typu string.</t>
+  </si>
+  <si>
+    <t>mqtt/us_100</t>
   </si>
 </sst>
 </file>
@@ -221,38 +221,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +571,7 @@
   <dimension ref="D3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,143 +584,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="12"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
@@ -728,11 +733,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentacja/MQTT_kanaly.xlsx
+++ b/Dokumentacja/MQTT_kanaly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel.garczyk\Desktop\Dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD6E83-F22C-4F9A-826F-36836B2517CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3698B76D-8FD7-436F-8425-E22D3985A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{D2E73A3A-567B-4341-AD8F-FC5CB34B2697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2E73A3A-567B-4341-AD8F-FC5CB34B2697}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>Kanał do resetowania enkoderów. Reset wykonywanany wartością "1"  - typu string.</t>
   </si>
   <si>
-    <t>mqtt/us_100</t>
+    <t>mqtt/us_100_dist</t>
   </si>
 </sst>
 </file>
@@ -221,6 +221,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,9 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -247,12 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,44 +584,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
@@ -680,30 +680,30 @@
       </c>
     </row>
     <row r="11" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="13"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
@@ -721,11 +721,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
@@ -733,6 +728,11 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentacja/MQTT_kanaly.xlsx
+++ b/Dokumentacja/MQTT_kanaly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel.garczyk\Desktop\Dokumentacja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lukasiewiczgov-my.sharepoint.com/personal/marcel_garczyk_pit_lukasiewicz_gov_pl/Documents/Pulpit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3698B76D-8FD7-436F-8425-E22D3985A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{3698B76D-8FD7-436F-8425-E22D3985A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A93B829-438F-4693-8E0A-112D66DFCA2C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2E73A3A-567B-4341-AD8F-FC5CB34B2697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2E73A3A-567B-4341-AD8F-FC5CB34B2697}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Nazwa kanału</t>
   </si>
@@ -69,30 +69,6 @@
     <t>rplidar.py</t>
   </si>
   <si>
-    <t>mqtt/right_ticks</t>
-  </si>
-  <si>
-    <t>Zliczone "ticki" z prawego enkodera, na ich podstawie wyznaczamy przebyty dystans.</t>
-  </si>
-  <si>
-    <t>right_enc.py</t>
-  </si>
-  <si>
-    <t>mqtt/left_ticks</t>
-  </si>
-  <si>
-    <t>Zliczone "ticki" z lewego enkodera, na ich podstawie wyznaczamy przebyty dystans.</t>
-  </si>
-  <si>
-    <t>left_enc.py</t>
-  </si>
-  <si>
-    <t>mqtt/reset_encoders</t>
-  </si>
-  <si>
-    <t>right_enc.py / left_enc.py</t>
-  </si>
-  <si>
     <t>mqtt/steering</t>
   </si>
   <si>
@@ -117,10 +93,16 @@
     <t xml:space="preserve">Kanał do publikowania zdjęć z kamery USB (lub innej) podłączonej do raspberry. </t>
   </si>
   <si>
-    <t>Kanał do resetowania enkoderów. Reset wykonywanany wartością "1"  - typu string.</t>
-  </si>
-  <si>
     <t>mqtt/us_100_dist</t>
+  </si>
+  <si>
+    <t>mqtt/liftlevel</t>
+  </si>
+  <si>
+    <t>Kanał do publikowania informacji o wysokości podniesienia podnośnika [cm].</t>
+  </si>
+  <si>
+    <t>height.py</t>
   </si>
 </sst>
 </file>
@@ -221,38 +203,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211159A-490E-4B10-B6E1-FAB255C5C431}">
-  <dimension ref="D3:G14"/>
+  <dimension ref="D3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,44 +566,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="12"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
@@ -637,102 +619,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F11:F13"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
